--- a/LR3/table_1_82.xlsx
+++ b/LR3/table_1_82.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4DC0EE-0A02-491A-829E-790D5DA0286D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F08104-47AD-426B-BE80-C390FA3E7C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A3+1</f>
+        <f t="shared" ref="A4:A38" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -661,7 +661,7 @@
         <v>90.2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>6268.9000000000005</v>
       </c>
       <c r="F4" s="5">
@@ -672,31 +672,31 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>6268.9000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">(C4-0.5)</f>
+        <f t="shared" ref="C5:C38" si="5">(C4-0.5)</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -704,42 +704,42 @@
         <v>90.2</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6223.8</v>
       </c>
       <c r="F5" s="5">
         <v>44813</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G38" si="5">G4+1</f>
+        <f t="shared" ref="G5:G38" si="6">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6223.8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -747,42 +747,42 @@
         <v>90.2</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6178.7</v>
       </c>
       <c r="F6" s="5">
         <v>44813</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6178.7</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -790,42 +790,42 @@
         <v>90.2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6133.6</v>
       </c>
       <c r="F7" s="5">
         <v>44813</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6133.6</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -833,42 +833,42 @@
         <v>90.2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6088.5</v>
       </c>
       <c r="F8" s="5">
         <v>44813</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6088.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -876,42 +876,42 @@
         <v>90.2</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6043.4000000000005</v>
       </c>
       <c r="F9" s="5">
         <v>44813</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6043.4000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -919,42 +919,42 @@
         <v>90.2</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5998.3</v>
       </c>
       <c r="F10" s="5">
         <v>44813</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5998.3</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -962,42 +962,42 @@
         <v>90.2</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5953.2</v>
       </c>
       <c r="F11" s="5">
         <v>44813</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5953.2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -1005,42 +1005,42 @@
         <v>90.2</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5908.1</v>
       </c>
       <c r="F12" s="5">
         <v>44813</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5918.1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1048,42 +1048,42 @@
         <v>90.2</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5863</v>
       </c>
       <c r="F13" s="5">
         <v>44813</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5883</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1091,42 +1091,42 @@
         <v>90.2</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5817.9000000000005</v>
       </c>
       <c r="F14" s="5">
         <v>44813</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5847.9000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1134,42 +1134,42 @@
         <v>90.2</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5772.8</v>
       </c>
       <c r="F15" s="5">
         <v>44813</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5812.8</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1177,42 +1177,42 @@
         <v>90.2</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5727.7</v>
       </c>
       <c r="F16" s="5">
         <v>44813</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5777.7</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1220,42 +1220,42 @@
         <v>90.2</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5682.6</v>
       </c>
       <c r="F17" s="5">
         <v>44813</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5742.6</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1263,42 +1263,42 @@
         <v>90.2</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5637.5</v>
       </c>
       <c r="F18" s="5">
         <v>44813</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5707.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1306,42 +1306,42 @@
         <v>90.2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5592.4000000000005</v>
       </c>
       <c r="F19" s="5">
         <v>44813</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5672.4000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1349,42 +1349,42 @@
         <v>90.2</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5547.3</v>
       </c>
       <c r="F20" s="5">
         <v>44813</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5637.3</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1392,42 +1392,42 @@
         <v>90.2</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5502.2</v>
       </c>
       <c r="F21" s="5">
         <v>44813</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5602.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1435,42 +1435,42 @@
         <v>90.2</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5457.1</v>
       </c>
       <c r="F22" s="5">
         <v>44813</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5567.1</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1478,85 +1478,85 @@
         <v>90.2</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5412</v>
       </c>
       <c r="F23" s="5">
         <v>44813</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5532</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ref="D5:D34" si="6">A21*1.1</f>
+        <f t="shared" ref="D24" si="7">A21*1.1</f>
         <v>20.900000000000002</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1243.5500000000002</v>
       </c>
       <c r="F24" s="5">
         <v>44813</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1373.5500000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1564,42 +1564,42 @@
         <v>90.2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5321.8</v>
       </c>
       <c r="F25" s="5">
         <v>44813</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5461.8</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1607,42 +1607,42 @@
         <v>90.2</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5276.7</v>
       </c>
       <c r="F26" s="5">
         <v>44813</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5426.7</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1650,42 +1650,42 @@
         <v>90.2</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5231.6000000000004</v>
       </c>
       <c r="F27" s="5">
         <v>44813</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5391.6</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1693,42 +1693,42 @@
         <v>90.2</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5186.5</v>
       </c>
       <c r="F28" s="5">
         <v>44813</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5356.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1736,42 +1736,42 @@
         <v>90.2</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5141.4000000000005</v>
       </c>
       <c r="F29" s="5">
         <v>44813</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5321.4000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1779,42 +1779,42 @@
         <v>90.2</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5096.3</v>
       </c>
       <c r="F30" s="5">
         <v>44813</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5286.3</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1822,42 +1822,42 @@
         <v>90.2</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5051.2</v>
       </c>
       <c r="F31" s="5">
         <v>44813</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5251.2</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1865,42 +1865,42 @@
         <v>90.2</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5006.1000000000004</v>
       </c>
       <c r="F32" s="5">
         <v>44813</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5216.1000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1908,42 +1908,42 @@
         <v>90.2</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4961</v>
       </c>
       <c r="F33" s="5">
         <v>44813</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5181</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1951,42 +1951,42 @@
         <v>90.2</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4915.9000000000005</v>
       </c>
       <c r="F34" s="5">
         <v>44813</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5145.9000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f>A34+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -1994,42 +1994,42 @@
         <v>45.1</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2435.4</v>
       </c>
       <c r="F35" s="5">
         <v>44813</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2675.4</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f>A35+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
@@ -2037,42 +2037,42 @@
         <v>45.1</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2412.85</v>
       </c>
       <c r="F36" s="5">
         <v>44813</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2662.85</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f>A36+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -2080,42 +2080,42 @@
         <v>45.1</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2390.3000000000002</v>
       </c>
       <c r="F37" s="5">
         <v>44813</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2650.3</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f>A37+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -2123,29 +2123,29 @@
         <v>45.1</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2367.75</v>
       </c>
       <c r="F38" s="5">
         <v>44813</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2637.75</v>
       </c>
     </row>

--- a/LR3/table_1_82.xlsx
+++ b/LR3/table_1_82.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F08104-47AD-426B-BE80-C390FA3E7C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837EE181-4A69-4AB2-B727-3F03074ADBA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,9 +171,6 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Общая сумма графы “Итого”, руб.</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Федько</t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&lt;F3,0,G3-F3)</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -672,7 +672,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -1517,12 +1517,12 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ref="D24" si="7">A21*1.1</f>
-        <v>20.900000000000002</v>
+        <f>A1*1.1</f>
+        <v>90.2</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>1243.5500000000002</v>
+        <v>5366.9000000000005</v>
       </c>
       <c r="F24" s="5">
         <v>44813</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="4"/>
-        <v>1373.5500000000002</v>
+        <v>5496.9000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,7 +2069,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2112,7 +2112,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38))</f>
-        <v>188941</v>
+        <v>193064</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_82.xlsx
+++ b/LR3/table_1_82.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837EE181-4A69-4AB2-B727-3F03074ADBA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B35091-7682-4322-A3C9-BCF8CA2C53C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>Общая сумма графы “Итого”, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, кв.м</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Федько</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2069,7 +2069,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_82.xlsx
+++ b/LR3/table_1_82.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B35091-7682-4322-A3C9-BCF8CA2C53C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005C0F6B-620D-4BFE-B23B-0893D9C345CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,9 +42,6 @@
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -171,19 +162,22 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Общая сумма графы “Итого”, руб.</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Федько</t>
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма , руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
   </si>
 </sst>
 </file>
@@ -553,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -586,22 +580,22 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -609,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -650,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <f>(C3-0.5)</f>
@@ -665,6 +659,7 @@
         <v>6268.9000000000005</v>
       </c>
       <c r="F4" s="5">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="5">
@@ -676,6 +671,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -693,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">(C4-0.5)</f>
@@ -708,10 +704,11 @@
         <v>6223.8</v>
       </c>
       <c r="F5" s="5">
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G38" si="6">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -719,6 +716,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -736,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -751,10 +749,11 @@
         <v>6178.7</v>
       </c>
       <c r="F6" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -762,6 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -779,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -794,10 +794,11 @@
         <v>6133.6</v>
       </c>
       <c r="F7" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -805,6 +806,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -822,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -837,10 +839,11 @@
         <v>6088.5</v>
       </c>
       <c r="F8" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -848,6 +851,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -865,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -880,10 +884,11 @@
         <v>6043.4000000000005</v>
       </c>
       <c r="F9" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -891,6 +896,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -908,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -923,10 +929,11 @@
         <v>5998.3</v>
       </c>
       <c r="F10" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -934,6 +941,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -951,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -966,10 +974,11 @@
         <v>5953.2</v>
       </c>
       <c r="F11" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -977,6 +986,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -994,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1009,10 +1019,11 @@
         <v>5908.1</v>
       </c>
       <c r="F12" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1020,6 +1031,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1037,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1052,10 +1064,11 @@
         <v>5863</v>
       </c>
       <c r="F13" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1063,6 +1076,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1080,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1095,10 +1109,11 @@
         <v>5817.9000000000005</v>
       </c>
       <c r="F14" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1106,6 +1121,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1123,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1138,10 +1154,11 @@
         <v>5772.8</v>
       </c>
       <c r="F15" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1149,6 +1166,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1166,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1181,10 +1199,11 @@
         <v>5727.7</v>
       </c>
       <c r="F16" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1192,6 +1211,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1209,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1224,10 +1244,11 @@
         <v>5682.6</v>
       </c>
       <c r="F17" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1235,6 +1256,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1252,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1267,10 +1289,11 @@
         <v>5637.5</v>
       </c>
       <c r="F18" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1278,6 +1301,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1295,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1310,10 +1334,11 @@
         <v>5592.4000000000005</v>
       </c>
       <c r="F19" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1321,6 +1346,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1338,7 +1364,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1353,10 +1379,11 @@
         <v>5547.3</v>
       </c>
       <c r="F20" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1364,6 +1391,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1381,7 +1409,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1396,10 +1424,11 @@
         <v>5502.2</v>
       </c>
       <c r="F21" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1407,6 +1436,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1424,7 +1454,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1439,10 +1469,11 @@
         <v>5457.1</v>
       </c>
       <c r="F22" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1450,6 +1481,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1467,7 +1499,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1482,10 +1514,11 @@
         <v>5412</v>
       </c>
       <c r="F23" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1493,6 +1526,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1510,7 +1544,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1525,10 +1559,11 @@
         <v>5366.9000000000005</v>
       </c>
       <c r="F24" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1536,6 +1571,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1553,7 +1589,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1568,10 +1604,11 @@
         <v>5321.8</v>
       </c>
       <c r="F25" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1579,6 +1616,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1596,7 +1634,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1611,10 +1649,11 @@
         <v>5276.7</v>
       </c>
       <c r="F26" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1622,6 +1661,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1639,7 +1679,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1654,10 +1694,11 @@
         <v>5231.6000000000004</v>
       </c>
       <c r="F27" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1665,6 +1706,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1682,7 +1724,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1697,10 +1739,11 @@
         <v>5186.5</v>
       </c>
       <c r="F28" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1708,6 +1751,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1725,7 +1769,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1740,10 +1784,11 @@
         <v>5141.4000000000005</v>
       </c>
       <c r="F29" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1751,6 +1796,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1768,7 +1814,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1783,10 +1829,11 @@
         <v>5096.3</v>
       </c>
       <c r="F30" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1794,6 +1841,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1811,7 +1859,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1826,10 +1874,11 @@
         <v>5051.2</v>
       </c>
       <c r="F31" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1837,6 +1886,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1854,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1869,10 +1919,11 @@
         <v>5006.1000000000004</v>
       </c>
       <c r="F32" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1880,6 +1931,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1897,7 +1949,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1912,10 +1964,11 @@
         <v>4961</v>
       </c>
       <c r="F33" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1923,6 +1976,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1940,7 +1994,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1955,10 +2009,11 @@
         <v>4915.9000000000005</v>
       </c>
       <c r="F34" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1966,6 +2021,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1983,7 +2039,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -1998,10 +2054,11 @@
         <v>2435.4</v>
       </c>
       <c r="F35" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2009,6 +2066,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2026,7 +2084,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2041,10 +2099,11 @@
         <v>2412.85</v>
       </c>
       <c r="F36" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2052,6 +2111,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2069,7 +2129,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2084,10 +2144,11 @@
         <v>2390.3000000000002</v>
       </c>
       <c r="F37" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2095,6 +2156,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2112,7 +2174,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2127,10 +2189,11 @@
         <v>2367.75</v>
       </c>
       <c r="F38" s="5">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2138,6 +2201,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2151,7 +2215,7 @@
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38))</f>
@@ -2160,7 +2224,7 @@
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2169,7 +2233,7 @@
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2178,7 +2242,7 @@
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_82.xlsx
+++ b/LR3/table_1_82.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005C0F6B-620D-4BFE-B23B-0893D9C345CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DC66DB-C0A3-4A33-940F-A332B9D37FA1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>Курочкин </t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Торощина</t>
   </si>
 </sst>
 </file>
@@ -545,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1769,7 +1769,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1814,7 +1814,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1859,7 +1859,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1904,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1949,7 +1949,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1994,7 +1994,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2039,7 +2039,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2084,7 +2084,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2129,7 +2129,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2174,7 +2174,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2214,9 +2214,6 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38))</f>
         <v>193064</v>
@@ -2233,7 +2230,7 @@
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2242,11 +2239,16 @@
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>6314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_82.xlsx
+++ b/LR3/table_1_82.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DC66DB-C0A3-4A33-940F-A332B9D37FA1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3E1128-FC8F-4E4C-895D-E29C605A322B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2214,6 +2214,9 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C40" s="1">
         <f>INT(SUM(K3:K38))</f>
         <v>193064</v>
@@ -2221,7 +2224,7 @@
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2230,7 +2233,7 @@
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2239,16 +2242,11 @@
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>6314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_82.xlsx
+++ b/LR3/table_1_82.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3E1128-FC8F-4E4C-895D-E29C605A322B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80853B8A-070F-44C1-B7FF-F9B067513297}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф,руб./кв.м</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Торощина</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -574,28 +574,28 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <f>(C3-0.5)</f>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">(C4-0.5)</f>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -779,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -824,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -869,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -959,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1004,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1049,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1094,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1139,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1184,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1229,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1274,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1319,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1364,7 +1364,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1409,7 +1409,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1454,7 +1454,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1499,7 +1499,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1544,7 +1544,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1589,7 +1589,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1634,7 +1634,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1679,7 +1679,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1724,7 +1724,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1769,7 +1769,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1814,7 +1814,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1859,7 +1859,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1904,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1949,7 +1949,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1994,7 +1994,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2039,7 +2039,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2084,7 +2084,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2129,7 +2129,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2174,7 +2174,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2215,16 +2215,16 @@
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
-        <f>INT(SUM(K3:K38))</f>
+        <f>TRUNC(SUM(K3:K38))</f>
         <v>193064</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_82.xlsx
+++ b/LR3/table_1_82.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80853B8A-070F-44C1-B7FF-F9B067513297}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DA02F-06CE-446B-9785-B107063FACAA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Максимальная сумма , руб.</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -547,9 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -574,13 +572,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1724,7 +1722,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -2242,7 +2240,7 @@
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_82.xlsx
+++ b/LR3/table_1_82.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DA02F-06CE-446B-9785-B107063FACAA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E820B5-F71A-46B6-9C94-64DDECD3693E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -566,34 +568,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -601,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -642,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <f>(C3-0.5)</f>
@@ -687,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">(C4-0.5)</f>
@@ -732,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -777,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -822,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -867,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -912,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -957,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1002,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1047,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1092,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1137,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1182,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1227,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1272,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1317,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1362,7 +1364,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1407,7 +1409,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1452,7 +1454,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1497,7 +1499,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1542,7 +1544,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1587,7 +1589,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1632,7 +1634,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1677,7 +1679,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1722,7 +1724,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1767,7 +1769,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1812,7 +1814,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1857,7 +1859,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1902,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1947,7 +1949,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1992,7 +1994,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2037,7 +2039,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2082,7 +2084,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2127,7 +2129,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2172,7 +2174,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2213,7 +2215,7 @@
     </row>
     <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1">
         <f>TRUNC(SUM(K3:K38))</f>
@@ -2222,7 +2224,7 @@
     </row>
     <row r="41" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2231,7 +2233,7 @@
     </row>
     <row r="42" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2240,7 +2242,7 @@
     </row>
     <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_82.xlsx
+++ b/LR3/table_1_82.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E820B5-F71A-46B6-9C94-64DDECD3693E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6469856-699E-4427-A5B2-1E26D4A31409}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,11 +647,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <f>(C3-0.5)</f>
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>A1*1.1</f>
+        <f>D3</f>
         <v>90.2</v>
       </c>
       <c r="E4" s="1">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">(C4-0.5)</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>90.2</v>
       </c>
       <c r="E5" s="1">
@@ -704,11 +704,11 @@
         <v>6223.8</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -741,7 +741,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E6" s="1">
@@ -749,11 +749,11 @@
         <v>6178.7</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -786,7 +786,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E7" s="1">
@@ -794,11 +794,11 @@
         <v>6133.6</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -831,7 +831,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E8" s="1">
@@ -839,11 +839,11 @@
         <v>6088.5</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -876,7 +876,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E9" s="1">
@@ -884,11 +884,11 @@
         <v>6043.4000000000005</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -921,7 +921,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E10" s="1">
@@ -929,11 +929,11 @@
         <v>5998.3</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -966,7 +966,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E11" s="1">
@@ -974,11 +974,11 @@
         <v>5953.2</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1011,7 +1011,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E12" s="1">
@@ -1019,11 +1019,11 @@
         <v>5908.1</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1056,7 +1056,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E13" s="1">
@@ -1064,11 +1064,11 @@
         <v>5863</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1101,7 +1101,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E14" s="1">
@@ -1109,11 +1109,11 @@
         <v>5817.9000000000005</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1121,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1146,7 +1146,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E15" s="1">
@@ -1154,11 +1154,11 @@
         <v>5772.8</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1166,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1191,7 +1191,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E16" s="1">
@@ -1199,11 +1199,11 @@
         <v>5727.7</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1211,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1236,7 +1236,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E17" s="1">
@@ -1244,11 +1244,11 @@
         <v>5682.6</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1256,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1281,7 +1281,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E18" s="1">
@@ -1289,11 +1289,11 @@
         <v>5637.5</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1326,7 +1326,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E19" s="1">
@@ -1334,11 +1334,11 @@
         <v>5592.4000000000005</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1371,7 +1371,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E20" s="1">
@@ -1379,11 +1379,11 @@
         <v>5547.3</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1416,7 +1416,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E21" s="1">
@@ -1424,11 +1424,11 @@
         <v>5502.2</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1436,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1461,7 +1461,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E22" s="1">
@@ -1469,11 +1469,11 @@
         <v>5457.1</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1481,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1506,7 +1506,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E23" s="1">
@@ -1514,11 +1514,11 @@
         <v>5412</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1526,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1551,7 +1551,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E24" s="1">
@@ -1559,11 +1559,11 @@
         <v>5366.9000000000005</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1571,7 +1571,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1596,7 +1596,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E25" s="1">
@@ -1604,11 +1604,11 @@
         <v>5321.8</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1616,7 +1616,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1641,7 +1641,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E26" s="1">
@@ -1649,11 +1649,11 @@
         <v>5276.7</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1661,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1686,7 +1686,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E27" s="1">
@@ -1694,11 +1694,11 @@
         <v>5231.6000000000004</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1706,7 +1706,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1731,7 +1731,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E28" s="1">
@@ -1739,11 +1739,11 @@
         <v>5186.5</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1751,7 +1751,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1776,7 +1776,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E29" s="1">
@@ -1784,11 +1784,11 @@
         <v>5141.4000000000005</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1796,7 +1796,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1821,7 +1821,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E30" s="1">
@@ -1829,11 +1829,11 @@
         <v>5096.3</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1841,7 +1841,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1866,7 +1866,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E31" s="1">
@@ -1874,11 +1874,11 @@
         <v>5051.2</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1886,7 +1886,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1911,7 +1911,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E32" s="1">
@@ -1919,11 +1919,11 @@
         <v>5006.1000000000004</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1931,7 +1931,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1956,7 +1956,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E33" s="1">
@@ -1964,11 +1964,11 @@
         <v>4961</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1976,7 +1976,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -2001,7 +2001,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>90.2</v>
       </c>
       <c r="E34" s="1">
@@ -2009,11 +2009,11 @@
         <v>4915.9000000000005</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -2021,7 +2021,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2054,11 +2054,11 @@
         <v>2435.4</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2066,7 +2066,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2091,7 +2091,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>A1*1.1/2</f>
+        <f>D35</f>
         <v>45.1</v>
       </c>
       <c r="E36" s="1">
@@ -2099,11 +2099,11 @@
         <v>2412.85</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2111,7 +2111,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2136,7 +2136,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>A1*1.1/2</f>
+        <f t="shared" ref="D37:D38" si="10">D36</f>
         <v>45.1</v>
       </c>
       <c r="E37" s="1">
@@ -2144,11 +2144,11 @@
         <v>2390.3000000000002</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2156,7 +2156,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2181,7 +2181,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>A1*1.1/2</f>
+        <f t="shared" si="10"/>
         <v>45.1</v>
       </c>
       <c r="E38" s="1">
@@ -2189,11 +2189,11 @@
         <v>2367.75</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2201,7 +2201,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_82.xlsx
+++ b/LR3/table_1_82.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6469856-699E-4427-A5B2-1E26D4A31409}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F112025-E060-4AE9-902D-3F815F843E7B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -675,7 +675,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -2046,7 +2046,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>A1*1.1/2</f>
+        <f>D3/2</f>
         <v>45.1</v>
       </c>
       <c r="E35" s="1">
@@ -2091,7 +2091,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D35</f>
+        <f>D3/2</f>
         <v>45.1</v>
       </c>
       <c r="E36" s="1">
@@ -2136,7 +2136,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37:D38" si="10">D36</f>
+        <f>D3/2</f>
         <v>45.1</v>
       </c>
       <c r="E37" s="1">
@@ -2181,7 +2181,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>45.1</v>
       </c>
       <c r="E38" s="1">
@@ -2218,7 +2218,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="1">
-        <f>TRUNC(SUM(K3:K38))</f>
+        <f>FLOOR(SUM(K3:K38), 1)</f>
         <v>193064</v>
       </c>
     </row>
